--- a/tests/fixtures/min_kb2.xlsx
+++ b/tests/fixtures/min_kb2.xlsx
@@ -1575,21 +1575,9 @@
     <t>Submodel</t>
   </si>
   <si>
-    <t>conversion_amp_atp</t>
-  </si>
-  <si>
     <t>metabolism</t>
   </si>
   <si>
-    <t>transfer_amp</t>
-  </si>
-  <si>
-    <t>[c]: amp ==&gt; atp</t>
-  </si>
-  <si>
-    <t>amp[e] ==&gt; amp[c]</t>
-  </si>
-  <si>
     <t>forward</t>
   </si>
   <si>
@@ -1597,6 +1585,18 @@
   </si>
   <si>
     <t>0.001*k_cat+k_m</t>
+  </si>
+  <si>
+    <t>[c]: (2) amp ==&gt; (2) atp</t>
+  </si>
+  <si>
+    <t>(2) amp[e] ==&gt; (2) amp[c]</t>
+  </si>
+  <si>
+    <t>mock_conversion_2amp_2atp</t>
+  </si>
+  <si>
+    <t>mock_transfer_2amp</t>
   </si>
 </sst>
 </file>
@@ -4247,7 +4247,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" activeCellId="1" sqref="A2 A3"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4288,14 +4288,14 @@
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -4307,14 +4307,14 @@
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
@@ -4338,7 +4338,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4376,24 +4376,24 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D3">
         <v>0.05</v>
